--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/02.TraBH/TBH_LED3AE_250625.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang6/02.TraBH/TBH_LED3AE_250625.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang6\02.TraBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F706DA-68E4-42A0-8FFA-41689EB1A874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5607506-CA54-4FAF-B24C-916B829EF186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,6 +503,39 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,39 +567,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -935,7 +935,7 @@
   <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:I15"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -955,77 +955,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="33" t="s">
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="34" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="37" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="39"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="40" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
       <c r="E6" s="26"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -1033,12 +1033,12 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
       <c r="E7" s="26"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -1046,12 +1046,12 @@
       <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="26"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -1059,12 +1059,12 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
       <c r="E9" s="26"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -1128,17 +1128,17 @@
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="32">
         <v>150000</v>
       </c>
       <c r="J12" s="7"/>
@@ -1164,26 +1164,26 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="48" t="s">
+      <c r="G15" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
@@ -1241,19 +1241,19 @@
       <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -1267,12 +1267,17 @@
       <c r="I22" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
     </row>
     <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:C4"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B24:C24"/>
@@ -1285,14 +1290,9 @@
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A1:C4"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1.5" bottom="1.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="21" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>